--- a/INTLINE/data/536/BKPM/old/DDI.xlsx
+++ b/INTLINE/data/536/BKPM/old/DDI.xlsx
@@ -24,7 +24,7 @@
     <t>Perkembangan Realisasi Investasi Berdasarkan Lokasi</t>
   </si>
   <si>
-    <t>Year 1990 s/d 2021</t>
+    <t>Year 1990 s/d 2022</t>
   </si>
   <si>
     <t>PMA</t>
@@ -1655,7 +1655,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.########" sourceLinked="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3673,10 +3673,10 @@
         <v>51133.5</v>
       </c>
       <c r="BM7" s="32">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="BN7" s="33">
-        <v>95870.5</v>
+        <v>203283.5</v>
       </c>
       <c r="BP7" s="30" t="s">
         <v>37</v>
@@ -3843,10 +3843,10 @@
         <v>8241055.6</v>
       </c>
       <c r="EB7" s="32">
-        <v>3050</v>
+        <v>2677</v>
       </c>
       <c r="EC7" s="33">
-        <v>7047704.6</v>
+        <v>7904744.3</v>
       </c>
     </row>
     <row r="8" spans="1:133">
@@ -4041,10 +4041,10 @@
         <v>974762.7</v>
       </c>
       <c r="BM8" s="32">
-        <v>1155</v>
+        <v>690</v>
       </c>
       <c r="BN8" s="33">
-        <v>449508.7</v>
+        <v>580422.2</v>
       </c>
       <c r="BP8" s="28"/>
       <c r="BQ8" s="30" t="s">
@@ -4237,10 +4237,10 @@
         <v>18189528.4</v>
       </c>
       <c r="EB8" s="32">
-        <v>6472</v>
+        <v>4186</v>
       </c>
       <c r="EC8" s="33">
-        <v>14510509.4</v>
+        <v>18484498.2</v>
       </c>
     </row>
     <row r="9" spans="1:133">
@@ -4415,10 +4415,10 @@
         <v>125589.4</v>
       </c>
       <c r="BM9" s="32">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="BN9" s="33">
-        <v>40023.7</v>
+        <v>66949</v>
       </c>
       <c r="BP9" s="28"/>
       <c r="BQ9" s="30" t="s">
@@ -4599,10 +4599,10 @@
         <v>3106178.7</v>
       </c>
       <c r="EB9" s="32">
-        <v>1906</v>
+        <v>1830</v>
       </c>
       <c r="EC9" s="33">
-        <v>3510278.9</v>
+        <v>4183713.9</v>
       </c>
     </row>
     <row r="10" spans="1:133">
@@ -4785,10 +4785,10 @@
         <v>1077984.2</v>
       </c>
       <c r="BM10" s="32">
-        <v>554</v>
+        <v>331</v>
       </c>
       <c r="BN10" s="33">
-        <v>1491801.6</v>
+        <v>1921412.7</v>
       </c>
       <c r="BP10" s="28"/>
       <c r="BQ10" s="30" t="s">
@@ -4977,10 +4977,10 @@
         <v>34117809</v>
       </c>
       <c r="EB10" s="32">
-        <v>3613</v>
+        <v>2618</v>
       </c>
       <c r="EC10" s="33">
-        <v>17763158.9</v>
+        <v>24997796.4</v>
       </c>
     </row>
     <row r="11" spans="1:133">
@@ -5135,10 +5135,10 @@
         <v>26967.4</v>
       </c>
       <c r="BM11" s="32">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="BN11" s="33">
-        <v>42023.1</v>
+        <v>50857.9</v>
       </c>
       <c r="BP11" s="28"/>
       <c r="BQ11" s="30" t="s">
@@ -5327,10 +5327,10 @@
         <v>3511677.2</v>
       </c>
       <c r="EB11" s="32">
-        <v>2490</v>
+        <v>1582</v>
       </c>
       <c r="EC11" s="33">
-        <v>4681382.4</v>
+        <v>6204193.9</v>
       </c>
     </row>
     <row r="12" spans="1:133">
@@ -5509,10 +5509,10 @@
         <v>1543875.1</v>
       </c>
       <c r="BM12" s="32">
-        <v>488</v>
+        <v>312</v>
       </c>
       <c r="BN12" s="33">
-        <v>953788.1</v>
+        <v>1259742.8</v>
       </c>
       <c r="BP12" s="28"/>
       <c r="BQ12" s="30" t="s">
@@ -5705,10 +5705,10 @@
         <v>15824525.1</v>
       </c>
       <c r="EB12" s="32">
-        <v>2202</v>
+        <v>1766</v>
       </c>
       <c r="EC12" s="33">
-        <v>12173659.4</v>
+        <v>16266850.5</v>
       </c>
     </row>
     <row r="13" spans="1:133">
@@ -5847,10 +5847,10 @@
         <v>192289.8</v>
       </c>
       <c r="BM13" s="32">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="BN13" s="33">
-        <v>5599</v>
+        <v>23716.8</v>
       </c>
       <c r="BP13" s="28"/>
       <c r="BQ13" s="30" t="s">
@@ -5999,10 +5999,10 @@
         <v>5399178.6</v>
       </c>
       <c r="EB13" s="32">
-        <v>660</v>
+        <v>558</v>
       </c>
       <c r="EC13" s="33">
-        <v>3884935.5</v>
+        <v>4923457.3</v>
       </c>
     </row>
     <row r="14" spans="1:133">
@@ -6189,10 +6189,10 @@
         <v>498411</v>
       </c>
       <c r="BM14" s="32">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="BN14" s="33">
-        <v>149370.1</v>
+        <v>173797</v>
       </c>
       <c r="BP14" s="28"/>
       <c r="BQ14" s="30" t="s">
@@ -6385,10 +6385,10 @@
         <v>7120509.1</v>
       </c>
       <c r="EB14" s="32">
-        <v>1431</v>
+        <v>1137</v>
       </c>
       <c r="EC14" s="33">
-        <v>8912943.8</v>
+        <v>10513231.8</v>
       </c>
     </row>
     <row r="15" spans="1:133">
@@ -6535,10 +6535,10 @@
         <v>48430.5</v>
       </c>
       <c r="BM15" s="32">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="BN15" s="33">
-        <v>28612</v>
+        <v>44724.8</v>
       </c>
       <c r="BP15" s="28"/>
       <c r="BQ15" s="30" t="s">
@@ -6695,10 +6695,10 @@
         <v>1863751.5</v>
       </c>
       <c r="EB15" s="32">
-        <v>1511</v>
+        <v>1431</v>
       </c>
       <c r="EC15" s="33">
-        <v>3311920.8</v>
+        <v>3677370.4</v>
       </c>
     </row>
     <row r="16" spans="1:133">
@@ -6893,10 +6893,10 @@
         <v>1649365.2</v>
       </c>
       <c r="BM16" s="32">
-        <v>1699</v>
+        <v>992</v>
       </c>
       <c r="BN16" s="33">
-        <v>956420.9</v>
+        <v>1043685.5</v>
       </c>
       <c r="BP16" s="28"/>
       <c r="BQ16" s="30" t="s">
@@ -7081,10 +7081,10 @@
         <v>14249025.6</v>
       </c>
       <c r="EB16" s="32">
-        <v>3602</v>
+        <v>2659</v>
       </c>
       <c r="EC16" s="33">
-        <v>6562498.7</v>
+        <v>9768685.7</v>
       </c>
     </row>
     <row r="17" spans="1:133">
@@ -7279,10 +7279,10 @@
         <v>6188808.8</v>
       </c>
       <c r="BM17" s="38">
-        <v>5090</v>
+        <v>3138</v>
       </c>
       <c r="BN17" s="39">
-        <v>4213017.7</v>
+        <v>5368592.2</v>
       </c>
       <c r="BP17" s="29"/>
       <c r="BQ17" s="36" t="s">
@@ -7475,10 +7475,10 @@
         <v>111623238.8</v>
       </c>
       <c r="EB17" s="38">
-        <v>26937</v>
+        <v>20444</v>
       </c>
       <c r="EC17" s="39">
-        <v>82358992.4</v>
+        <v>106924542.4</v>
       </c>
     </row>
     <row r="18" spans="1:133">
@@ -7675,10 +7675,10 @@
         <v>3613262.5</v>
       </c>
       <c r="BM18" s="32">
-        <v>10524</v>
+        <v>7620</v>
       </c>
       <c r="BN18" s="33">
-        <v>2619192.4</v>
+        <v>3330567.7</v>
       </c>
       <c r="BP18" s="30" t="s">
         <v>49</v>
@@ -7873,10 +7873,10 @@
         <v>42954743.9</v>
       </c>
       <c r="EB18" s="32">
-        <v>33181</v>
+        <v>27119</v>
       </c>
       <c r="EC18" s="33">
-        <v>34303728.1</v>
+        <v>54708229</v>
       </c>
     </row>
     <row r="19" spans="1:133">
@@ -8071,10 +8071,10 @@
         <v>4793707.2</v>
       </c>
       <c r="BM19" s="32">
-        <v>8104</v>
+        <v>5244</v>
       </c>
       <c r="BN19" s="33">
-        <v>4241457</v>
+        <v>5217691.3</v>
       </c>
       <c r="BP19" s="28"/>
       <c r="BQ19" s="30" t="s">
@@ -8267,10 +8267,10 @@
         <v>51400545.3</v>
       </c>
       <c r="EB19" s="32">
-        <v>11537</v>
+        <v>8603</v>
       </c>
       <c r="EC19" s="33">
-        <v>45304851.2</v>
+        <v>59948530.4</v>
       </c>
     </row>
     <row r="20" spans="1:133">
@@ -8465,10 +8465,10 @@
         <v>1363635</v>
       </c>
       <c r="BM20" s="32">
-        <v>2104</v>
+        <v>1293</v>
       </c>
       <c r="BN20" s="33">
-        <v>980210.1</v>
+        <v>1465939.3</v>
       </c>
       <c r="BP20" s="28"/>
       <c r="BQ20" s="30" t="s">
@@ -8661,10 +8661,10 @@
         <v>30606131.2</v>
       </c>
       <c r="EB20" s="32">
-        <v>11899</v>
+        <v>8430</v>
       </c>
       <c r="EC20" s="33">
-        <v>23877090.2</v>
+        <v>31311180.8</v>
       </c>
     </row>
     <row r="21" spans="1:133">
@@ -8843,10 +8843,10 @@
         <v>9722.7</v>
       </c>
       <c r="BM21" s="32">
-        <v>386</v>
+        <v>249</v>
       </c>
       <c r="BN21" s="33">
-        <v>14790.5</v>
+        <v>21813.6</v>
       </c>
       <c r="BP21" s="28"/>
       <c r="BQ21" s="30" t="s">
@@ -9031,10 +9031,10 @@
         <v>2683375.7</v>
       </c>
       <c r="EB21" s="32">
-        <v>2409</v>
+        <v>1827</v>
       </c>
       <c r="EC21" s="33">
-        <v>2235311.3</v>
+        <v>2761270.5</v>
       </c>
     </row>
     <row r="22" spans="1:133">
@@ -9229,10 +9229,10 @@
         <v>1575459.8</v>
       </c>
       <c r="BM22" s="32">
-        <v>2688</v>
+        <v>1815</v>
       </c>
       <c r="BN22" s="33">
-        <v>1117102</v>
+        <v>1849172.6</v>
       </c>
       <c r="BP22" s="28"/>
       <c r="BQ22" s="30" t="s">
@@ -9425,10 +9425,10 @@
         <v>55660575.2</v>
       </c>
       <c r="EB22" s="32">
-        <v>17652</v>
+        <v>14260</v>
       </c>
       <c r="EC22" s="33">
-        <v>36414630.3</v>
+        <v>52552238.5</v>
       </c>
     </row>
     <row r="23" spans="1:133">
@@ -9623,10 +9623,10 @@
         <v>2143559.2</v>
       </c>
       <c r="BM23" s="32">
-        <v>2992</v>
+        <v>1939</v>
       </c>
       <c r="BN23" s="33">
-        <v>1584916.7</v>
+        <v>2189967.2</v>
       </c>
       <c r="BP23" s="28"/>
       <c r="BQ23" s="30" t="s">
@@ -9819,10 +9819,10 @@
         <v>31145661.9</v>
       </c>
       <c r="EB23" s="32">
-        <v>6119</v>
+        <v>4403</v>
       </c>
       <c r="EC23" s="33">
-        <v>22461891.6</v>
+        <v>25989489.5</v>
       </c>
     </row>
     <row r="24" spans="1:133">
@@ -10017,10 +10017,10 @@
         <v>13499346.4</v>
       </c>
       <c r="BM24" s="38">
-        <v>26798</v>
+        <v>18160</v>
       </c>
       <c r="BN24" s="39">
-        <v>10557668.7</v>
+        <v>14075151.7</v>
       </c>
       <c r="BP24" s="29"/>
       <c r="BQ24" s="36" t="s">
@@ -10213,10 +10213,10 @@
         <v>214451033.2</v>
       </c>
       <c r="EB24" s="38">
-        <v>82797</v>
+        <v>64642</v>
       </c>
       <c r="EC24" s="39">
-        <v>164597502.7</v>
+        <v>227270938.7</v>
       </c>
     </row>
     <row r="25" spans="1:133">
@@ -10409,10 +10409,10 @@
         <v>293252.2</v>
       </c>
       <c r="BM25" s="32">
-        <v>3815</v>
+        <v>2798</v>
       </c>
       <c r="BN25" s="33">
-        <v>256612.5</v>
+        <v>451966.5</v>
       </c>
       <c r="BP25" s="30" t="s">
         <v>57</v>
@@ -10607,10 +10607,10 @@
         <v>5432674.5</v>
       </c>
       <c r="EB25" s="32">
-        <v>3265</v>
+        <v>2330</v>
       </c>
       <c r="EC25" s="33">
-        <v>4519135.5</v>
+        <v>6355249.2</v>
       </c>
     </row>
     <row r="26" spans="1:133">
@@ -10785,10 +10785,10 @@
         <v>302075.8</v>
       </c>
       <c r="BM26" s="32">
-        <v>1269</v>
+        <v>824</v>
       </c>
       <c r="BN26" s="33">
-        <v>169576</v>
+        <v>244172.7</v>
       </c>
       <c r="BP26" s="28"/>
       <c r="BQ26" s="30" t="s">
@@ -10949,10 +10949,10 @@
         <v>6582379.2</v>
       </c>
       <c r="EB26" s="32">
-        <v>1769</v>
+        <v>1509</v>
       </c>
       <c r="EC26" s="33">
-        <v>6871296</v>
+        <v>9090453.8</v>
       </c>
     </row>
     <row r="27" spans="1:133">
@@ -11115,10 +11115,10 @@
         <v>81256</v>
       </c>
       <c r="BM27" s="32">
-        <v>424</v>
+        <v>262</v>
       </c>
       <c r="BN27" s="33">
-        <v>75538.7</v>
+        <v>79041.3</v>
       </c>
       <c r="BP27" s="28"/>
       <c r="BQ27" s="30" t="s">
@@ -11255,10 +11255,10 @@
         <v>3028497.9</v>
       </c>
       <c r="EB27" s="32">
-        <v>904</v>
+        <v>751</v>
       </c>
       <c r="EC27" s="33">
-        <v>2630665.2</v>
+        <v>3742631.4</v>
       </c>
     </row>
     <row r="28" spans="1:133">
@@ -11453,10 +11453,10 @@
         <v>676584</v>
       </c>
       <c r="BM28" s="38">
-        <v>5508</v>
+        <v>3884</v>
       </c>
       <c r="BN28" s="39">
-        <v>501727.2</v>
+        <v>775180.5</v>
       </c>
       <c r="BP28" s="29"/>
       <c r="BQ28" s="36" t="s">
@@ -11649,10 +11649,10 @@
         <v>15043551.6</v>
       </c>
       <c r="EB28" s="38">
-        <v>5938</v>
+        <v>4590</v>
       </c>
       <c r="EC28" s="39">
-        <v>14021096.7</v>
+        <v>19188334.4</v>
       </c>
     </row>
     <row r="29" spans="1:133">
@@ -11825,10 +11825,10 @@
         <v>759264.2</v>
       </c>
       <c r="BM29" s="32">
-        <v>570</v>
+        <v>337</v>
       </c>
       <c r="BN29" s="33">
-        <v>331498.2</v>
+        <v>463413.7</v>
       </c>
       <c r="BP29" s="30" t="s">
         <v>62</v>
@@ -12019,10 +12019,10 @@
         <v>9256471.4</v>
       </c>
       <c r="EB29" s="32">
-        <v>2871</v>
+        <v>2173</v>
       </c>
       <c r="EC29" s="33">
-        <v>6911374.5</v>
+        <v>10773393</v>
       </c>
     </row>
     <row r="30" spans="1:133">
@@ -12205,10 +12205,10 @@
         <v>177639</v>
       </c>
       <c r="BM30" s="32">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="BN30" s="33">
-        <v>111361.2</v>
+        <v>162487.7</v>
       </c>
       <c r="BP30" s="28"/>
       <c r="BQ30" s="30" t="s">
@@ -12389,10 +12389,10 @@
         <v>3709958.2</v>
       </c>
       <c r="EB30" s="32">
-        <v>1124</v>
+        <v>863</v>
       </c>
       <c r="EC30" s="33">
-        <v>5234661</v>
+        <v>6359803.6</v>
       </c>
     </row>
     <row r="31" spans="1:133">
@@ -12575,10 +12575,10 @@
         <v>240792.8</v>
       </c>
       <c r="BM31" s="32">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="BN31" s="33">
-        <v>66906</v>
+        <v>117242.5</v>
       </c>
       <c r="BP31" s="28"/>
       <c r="BQ31" s="30" t="s">
@@ -12771,10 +12771,10 @@
         <v>4286314.6</v>
       </c>
       <c r="EB31" s="32">
-        <v>2039</v>
+        <v>1588</v>
       </c>
       <c r="EC31" s="33">
-        <v>8458470.9</v>
+        <v>11003898.1</v>
       </c>
     </row>
     <row r="32" spans="1:133">
@@ -12949,10 +12949,10 @@
         <v>378027.2</v>
       </c>
       <c r="BM32" s="32">
-        <v>686</v>
+        <v>428</v>
       </c>
       <c r="BN32" s="33">
-        <v>511421.3</v>
+        <v>745190.2</v>
       </c>
       <c r="BP32" s="28"/>
       <c r="BQ32" s="30" t="s">
@@ -13145,10 +13145,10 @@
         <v>25934008.8</v>
       </c>
       <c r="EB32" s="32">
-        <v>5642</v>
+        <v>4317</v>
       </c>
       <c r="EC32" s="33">
-        <v>17344526.3</v>
+        <v>30297382.2</v>
       </c>
     </row>
     <row r="33" spans="1:133">
@@ -13283,10 +13283,10 @@
         <v>68428.6</v>
       </c>
       <c r="BM33" s="32">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="BN33" s="33">
-        <v>122456.5</v>
+        <v>133460.4</v>
       </c>
       <c r="BP33" s="28"/>
       <c r="BQ33" s="30" t="s">
@@ -13431,10 +13431,10 @@
         <v>2235206</v>
       </c>
       <c r="EB33" s="32">
-        <v>496</v>
+        <v>405</v>
       </c>
       <c r="EC33" s="33">
-        <v>2619507.7</v>
+        <v>3792510.4</v>
       </c>
     </row>
     <row r="34" spans="1:133">
@@ -13629,10 +13629,10 @@
         <v>1624151.8</v>
       </c>
       <c r="BM34" s="38">
-        <v>1819</v>
+        <v>1165</v>
       </c>
       <c r="BN34" s="39">
-        <v>1143643.2</v>
+        <v>1621794.5</v>
       </c>
       <c r="BP34" s="29"/>
       <c r="BQ34" s="36" t="s">
@@ -13825,10 +13825,10 @@
         <v>45421959</v>
       </c>
       <c r="EB34" s="38">
-        <v>12172</v>
+        <v>9346</v>
       </c>
       <c r="EC34" s="39">
-        <v>40568540.4</v>
+        <v>62226987.3</v>
       </c>
     </row>
     <row r="35" spans="1:133">
@@ -14013,10 +14013,10 @@
         <v>155689.5</v>
       </c>
       <c r="BM35" s="32">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="BN35" s="33">
-        <v>133770.9</v>
+        <v>169079.7</v>
       </c>
       <c r="BP35" s="30" t="s">
         <v>69</v>
@@ -14203,10 +14203,10 @@
         <v>3005639.6</v>
       </c>
       <c r="EB35" s="32">
-        <v>1335</v>
+        <v>792</v>
       </c>
       <c r="EC35" s="33">
-        <v>3055394.3</v>
+        <v>3480026.7</v>
       </c>
     </row>
     <row r="36" spans="1:133">
@@ -14369,10 +14369,10 @@
         <v>1778986.4</v>
       </c>
       <c r="BM36" s="32">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="BN36" s="33">
-        <v>1777643.7</v>
+        <v>2718101.9</v>
       </c>
       <c r="BP36" s="28"/>
       <c r="BQ36" s="30" t="s">
@@ -14533,10 +14533,10 @@
         <v>5261315.8</v>
       </c>
       <c r="EB36" s="32">
-        <v>1007</v>
+        <v>847</v>
       </c>
       <c r="EC36" s="33">
-        <v>2693098.4</v>
+        <v>3012341.1</v>
       </c>
     </row>
     <row r="37" spans="1:133">
@@ -14723,10 +14723,10 @@
         <v>236054.8</v>
       </c>
       <c r="BM37" s="32">
-        <v>418</v>
+        <v>247</v>
       </c>
       <c r="BN37" s="33">
-        <v>195233</v>
+        <v>309955.4</v>
       </c>
       <c r="BP37" s="28"/>
       <c r="BQ37" s="30" t="s">
@@ -14915,10 +14915,10 @@
         <v>9142047.5</v>
       </c>
       <c r="EB37" s="32">
-        <v>2368</v>
+        <v>1994</v>
       </c>
       <c r="EC37" s="33">
-        <v>10785855</v>
+        <v>12075383.7</v>
       </c>
     </row>
     <row r="38" spans="1:133">
@@ -15073,10 +15073,10 @@
         <v>1268574.4</v>
       </c>
       <c r="BM38" s="32">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="BN38" s="33">
-        <v>1264837.7</v>
+        <v>1616454.6</v>
       </c>
       <c r="BP38" s="28"/>
       <c r="BQ38" s="30" t="s">
@@ -15221,10 +15221,10 @@
         <v>2865732.7</v>
       </c>
       <c r="EB38" s="32">
-        <v>892</v>
+        <v>954</v>
       </c>
       <c r="EC38" s="33">
-        <v>3199586.9</v>
+        <v>4334208.8</v>
       </c>
     </row>
     <row r="39" spans="1:133">
@@ -15355,10 +15355,10 @@
         <v>67586.8</v>
       </c>
       <c r="BM39" s="32">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="BN39" s="33">
-        <v>54720.4</v>
+        <v>78007.7</v>
       </c>
       <c r="BP39" s="28"/>
       <c r="BQ39" s="30" t="s">
@@ -15483,10 +15483,10 @@
         <v>683565.1</v>
       </c>
       <c r="EB39" s="32">
-        <v>443</v>
+        <v>364</v>
       </c>
       <c r="EC39" s="33">
-        <v>931375.1</v>
+        <v>1004254.3</v>
       </c>
     </row>
     <row r="40" spans="1:133">
@@ -15601,10 +15601,10 @@
         <v>6526.4</v>
       </c>
       <c r="BM40" s="32">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="BN40" s="33">
-        <v>3492.7</v>
+        <v>5921.2</v>
       </c>
       <c r="BP40" s="28"/>
       <c r="BQ40" s="30" t="s">
@@ -15745,10 +15745,10 @@
         <v>252945.1</v>
       </c>
       <c r="EB40" s="32">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="EC40" s="33">
-        <v>317231.5</v>
+        <v>395275.4</v>
       </c>
     </row>
     <row r="41" spans="1:133">
@@ -15939,10 +15939,10 @@
         <v>3513418.3</v>
       </c>
       <c r="BM41" s="38">
-        <v>1099</v>
+        <v>669</v>
       </c>
       <c r="BN41" s="39">
-        <v>3429698.4</v>
+        <v>4897520.5</v>
       </c>
       <c r="BP41" s="29"/>
       <c r="BQ41" s="36" t="s">
@@ -16135,10 +16135,10 @@
         <v>21211245.8</v>
       </c>
       <c r="EB41" s="38">
-        <v>6271</v>
+        <v>5142</v>
       </c>
       <c r="EC41" s="39">
-        <v>20982541.2</v>
+        <v>24301490</v>
       </c>
     </row>
     <row r="42" spans="1:133">
@@ -16283,10 +16283,10 @@
         <v>176699.2</v>
       </c>
       <c r="BM42" s="32">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="BN42" s="33">
-        <v>12567.2</v>
+        <v>13318.7</v>
       </c>
       <c r="BP42" s="30" t="s">
         <v>77</v>
@@ -16437,10 +16437,10 @@
         <v>474817.8</v>
       </c>
       <c r="EB42" s="32">
-        <v>779</v>
+        <v>713</v>
       </c>
       <c r="EC42" s="33">
-        <v>2797514.2</v>
+        <v>2939704.8</v>
       </c>
     </row>
     <row r="43" spans="1:133">
@@ -16567,10 +16567,10 @@
         <v>2409007.4</v>
       </c>
       <c r="BM43" s="32">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="BN43" s="33">
-        <v>1876691.9</v>
+        <v>2819935.1</v>
       </c>
       <c r="BP43" s="28"/>
       <c r="BQ43" s="30" t="s">
@@ -16695,10 +16695,10 @@
         <v>662130.4</v>
       </c>
       <c r="EB43" s="32">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="EC43" s="33">
-        <v>1100452.8</v>
+        <v>2665251.4</v>
       </c>
     </row>
     <row r="44" spans="1:133">
@@ -16849,10 +16849,10 @@
         <v>2585706.6</v>
       </c>
       <c r="BM44" s="38">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="BN44" s="39">
-        <v>1889259.1</v>
+        <v>2833253.8</v>
       </c>
       <c r="BP44" s="29"/>
       <c r="BQ44" s="36" t="s">
@@ -17009,10 +17009,10 @@
         <v>1136948.2</v>
       </c>
       <c r="EB44" s="38">
-        <v>1172</v>
+        <v>1060</v>
       </c>
       <c r="EC44" s="39">
-        <v>3897967</v>
+        <v>5604956.2</v>
       </c>
     </row>
     <row r="45" spans="1:133">
@@ -17177,10 +17177,10 @@
         <v>10585</v>
       </c>
       <c r="BM45" s="32">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="BN45" s="33">
-        <v>32499.3</v>
+        <v>32502</v>
       </c>
       <c r="BP45" s="30" t="s">
         <v>80</v>
@@ -17315,10 +17315,10 @@
         <v>1925364.4</v>
       </c>
       <c r="EB45" s="32">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="EC45" s="33">
-        <v>622994.7</v>
+        <v>635552.6</v>
       </c>
     </row>
     <row r="46" spans="1:133">
@@ -17473,10 +17473,10 @@
         <v>567671.3</v>
       </c>
       <c r="BM46" s="32">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="BN46" s="33">
-        <v>954293.5</v>
+        <v>1489073.8</v>
       </c>
       <c r="BP46" s="28"/>
       <c r="BQ46" s="30" t="s">
@@ -17633,10 +17633,10 @@
         <v>2722182.5</v>
       </c>
       <c r="EB46" s="32">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="EC46" s="33">
-        <v>676658.1</v>
+        <v>910844.8</v>
       </c>
     </row>
     <row r="47" spans="1:133">
@@ -17819,10 +17819,10 @@
         <v>578256.3</v>
       </c>
       <c r="BM47" s="38">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="BN47" s="39">
-        <v>986792.8</v>
+        <v>1521575.8</v>
       </c>
       <c r="BP47" s="29"/>
       <c r="BQ47" s="36" t="s">
@@ -17991,10 +17991,10 @@
         <v>4647546.9</v>
       </c>
       <c r="EB47" s="38">
-        <v>879</v>
+        <v>776</v>
       </c>
       <c r="EC47" s="39">
-        <v>1299652.8</v>
+        <v>1546397.4</v>
       </c>
     </row>
     <row r="48" spans="1:133">
@@ -18189,10 +18189,10 @@
         <v>28666272.2</v>
       </c>
       <c r="BM48" s="45">
-        <v>40733</v>
+        <v>27271</v>
       </c>
       <c r="BN48" s="46">
-        <v>22721807.1</v>
+        <v>31093069</v>
       </c>
       <c r="BP48" s="43" t="s">
         <v>93</v>
@@ -18385,21 +18385,21 @@
         <v>413535523.5</v>
       </c>
       <c r="EB48" s="45">
-        <v>136166</v>
+        <v>106000</v>
       </c>
       <c r="EC48" s="46">
-        <v>327726293.2</v>
+        <v>447063646.4</v>
       </c>
     </row>
     <row r="94" spans="1:90">
       <c r="A94" s="15">
-        <v>44558</v>
+        <v>44652</v>
       </c>
       <c r="AT94" s="16">
         <v>1</v>
       </c>
       <c r="CL94" s="17">
-        <v>0.89535879</v>
+        <v>0.54068287</v>
       </c>
     </row>
   </sheetData>
@@ -18525,44 +18525,44 @@
     <row r="1" spans="1:8">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
       <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
       </c>
       <c r="H1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>611851.800000</v>
+      </c>
+      <c r="C2">
+        <v>35340.900000</v>
+      </c>
+      <c r="D2">
         <v>10451.400000</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>9154.000000</v>
       </c>
-      <c r="D2">
-        <v>611851.800000</v>
-      </c>
-      <c r="E2">
-        <v>35340.900000</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>41117.400000</v>
       </c>
     </row>
@@ -18571,22 +18571,22 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>1044289.800000</v>
+      </c>
+      <c r="C3">
+        <v>1394.400000</v>
+      </c>
+      <c r="D3">
         <v>36608.600000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2245.500000</v>
       </c>
-      <c r="D3">
-        <v>1044289.800000</v>
-      </c>
-      <c r="E3">
-        <v>1394.400000</v>
-      </c>
       <c r="F3">
+        <v>1598.700000</v>
+      </c>
+      <c r="G3">
         <v>8311.500000</v>
-      </c>
-      <c r="G3">
-        <v>1598.700000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -18594,41 +18594,41 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>4371543.500000</v>
+      </c>
+      <c r="C4">
+        <v>3511.700000</v>
+      </c>
+      <c r="D4">
         <v>175999.200000</v>
       </c>
-      <c r="D4">
-        <v>4371543.500000</v>
-      </c>
-      <c r="E4">
-        <v>3511.700000</v>
-      </c>
       <c r="F4">
+        <v>21300.700000</v>
+      </c>
+      <c r="G4">
         <v>33897.400000</v>
-      </c>
-      <c r="G4">
-        <v>21300.700000</v>
       </c>
       <c r="H4">
         <v>1000.000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
+        <v>13160858.000000</v>
+      </c>
+      <c r="C5">
+        <v>31421.700000</v>
+      </c>
+      <c r="D5">
         <v>14285.100000</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>30653.600000</v>
       </c>
-      <c r="D5">
-        <v>13160858.000000</v>
-      </c>
-      <c r="E5">
-        <v>31421.700000</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>16976.200000</v>
       </c>
     </row>
@@ -18637,22 +18637,22 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <v>3026820.400000</v>
+      </c>
+      <c r="C6">
+        <v>451016.700000</v>
+      </c>
+      <c r="D6">
         <v>159482.300000</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>44751.400000</v>
       </c>
-      <c r="D6">
-        <v>3026820.400000</v>
-      </c>
-      <c r="E6">
-        <v>451016.700000</v>
-      </c>
       <c r="F6">
+        <v>61335.000000</v>
+      </c>
+      <c r="G6">
         <v>10005809.100000</v>
-      </c>
-      <c r="G6">
-        <v>61335.000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -18660,22 +18660,22 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>5554764.200000</v>
+      </c>
+      <c r="C7">
+        <v>13114.100000</v>
+      </c>
+      <c r="D7">
         <v>1374276.300000</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>11670.600000</v>
       </c>
-      <c r="D7">
-        <v>5554764.200000</v>
-      </c>
-      <c r="E7">
-        <v>13114.100000</v>
-      </c>
       <c r="F7">
+        <v>200470.000000</v>
+      </c>
+      <c r="G7">
         <v>4397.600000</v>
-      </c>
-      <c r="G7">
-        <v>200470.000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -18683,22 +18683,22 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>5950537.600000</v>
+      </c>
+      <c r="C8">
+        <v>225190.100000</v>
+      </c>
+      <c r="D8">
         <v>329888.600000</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>4092.700000</v>
       </c>
-      <c r="D8">
-        <v>5950537.600000</v>
-      </c>
-      <c r="E8">
-        <v>225190.100000</v>
-      </c>
       <c r="F8">
+        <v>154939.000000</v>
+      </c>
+      <c r="G8">
         <v>29016.500000</v>
-      </c>
-      <c r="G8">
-        <v>154939.000000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -18706,22 +18706,22 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>33836316.500000</v>
+      </c>
+      <c r="C9">
+        <v>9234.400000</v>
+      </c>
+      <c r="D9">
         <v>270985.700000</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>22025.600000</v>
       </c>
-      <c r="D9">
-        <v>33836316.500000</v>
-      </c>
-      <c r="E9">
-        <v>9234.400000</v>
-      </c>
       <c r="F9">
+        <v>15000.000000</v>
+      </c>
+      <c r="G9">
         <v>133819.200000</v>
-      </c>
-      <c r="G9">
-        <v>15000.000000</v>
       </c>
       <c r="H9">
         <v>540.000000</v>
@@ -18732,22 +18732,22 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>11568175.400000</v>
+      </c>
+      <c r="C10">
+        <v>40223.200000</v>
+      </c>
+      <c r="D10">
         <v>635347.800000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>9280.000000</v>
       </c>
-      <c r="D10">
-        <v>11568175.400000</v>
-      </c>
-      <c r="E10">
-        <v>40223.200000</v>
-      </c>
       <c r="F10">
+        <v>117.500000</v>
+      </c>
+      <c r="G10">
         <v>9304.500000</v>
-      </c>
-      <c r="G10">
-        <v>117.500000</v>
       </c>
       <c r="H10">
         <v>1772.000000</v>
@@ -18758,22 +18758,22 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>31098693.100000</v>
+      </c>
+      <c r="C11">
+        <v>28855.200000</v>
+      </c>
+      <c r="D11">
         <v>3096080.300000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>773372.400000</v>
       </c>
-      <c r="D11">
-        <v>31098693.100000</v>
-      </c>
-      <c r="E11">
-        <v>28855.200000</v>
-      </c>
       <c r="F11">
+        <v>100000.000000</v>
+      </c>
+      <c r="G11">
         <v>159790.100000</v>
-      </c>
-      <c r="G11">
-        <v>100000.000000</v>
       </c>
       <c r="H11">
         <v>8784.000000</v>
@@ -18784,22 +18784,22 @@
         <v>13</v>
       </c>
       <c r="B12">
+        <v>8307523.500000</v>
+      </c>
+      <c r="C12">
+        <v>1388191.600000</v>
+      </c>
+      <c r="D12">
         <v>529861.800000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>11261.400000</v>
       </c>
-      <c r="D12">
-        <v>8307523.500000</v>
-      </c>
-      <c r="E12">
-        <v>1388191.600000</v>
-      </c>
       <c r="F12">
+        <v>504454.100000</v>
+      </c>
+      <c r="G12">
         <v>478118.500000</v>
-      </c>
-      <c r="G12">
-        <v>504454.100000</v>
       </c>
       <c r="H12">
         <v>1000.000000</v>
@@ -18810,22 +18810,22 @@
         <v>14</v>
       </c>
       <c r="B13">
+        <v>7193852.500000</v>
+      </c>
+      <c r="C13">
+        <v>34301.400000</v>
+      </c>
+      <c r="D13">
         <v>555532.100000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>7068.000000</v>
       </c>
-      <c r="D13">
-        <v>7193852.500000</v>
-      </c>
-      <c r="E13">
-        <v>34301.400000</v>
-      </c>
       <c r="F13">
+        <v>24770.000000</v>
+      </c>
+      <c r="G13">
         <v>144402.400000</v>
-      </c>
-      <c r="G13">
-        <v>24770.000000</v>
       </c>
       <c r="H13">
         <v>1841.000000</v>
@@ -18836,22 +18836,22 @@
         <v>15</v>
       </c>
       <c r="B14">
+        <v>2541853.800000</v>
+      </c>
+      <c r="C14">
+        <v>6661.300000</v>
+      </c>
+      <c r="D14">
         <v>97740.800000</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>10649.400000</v>
       </c>
-      <c r="D14">
-        <v>2541853.800000</v>
-      </c>
-      <c r="E14">
-        <v>6661.300000</v>
-      </c>
       <c r="F14">
+        <v>4108.000000</v>
+      </c>
+      <c r="G14">
         <v>488242.000000</v>
-      </c>
-      <c r="G14">
-        <v>4108.000000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -18859,41 +18859,41 @@
         <v>16</v>
       </c>
       <c r="B15">
+        <v>5977884.100000</v>
+      </c>
+      <c r="C15">
+        <v>3399.000000</v>
+      </c>
+      <c r="D15">
         <v>514882.300000</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>258668.200000</v>
       </c>
-      <c r="D15">
-        <v>5977884.100000</v>
-      </c>
-      <c r="E15">
-        <v>3399.000000</v>
-      </c>
       <c r="F15">
+        <v>4100.000000</v>
+      </c>
+      <c r="G15">
         <v>132912.500000</v>
       </c>
-      <c r="G15">
-        <v>4100.000000</v>
-      </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
+        <v>2804960.700000</v>
+      </c>
+      <c r="C16">
+        <v>31324.600000</v>
+      </c>
+      <c r="D16">
         <v>688884.100000</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>28895.800000</v>
       </c>
-      <c r="D16">
-        <v>2804960.700000</v>
-      </c>
-      <c r="E16">
-        <v>31324.600000</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>349225.500000</v>
       </c>
     </row>
@@ -18902,22 +18902,22 @@
         <v>18</v>
       </c>
       <c r="B17">
+        <v>7305600.400000</v>
+      </c>
+      <c r="C17">
+        <v>120331.100000</v>
+      </c>
+      <c r="D17">
         <v>1223304.800000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>145259.800000</v>
       </c>
-      <c r="D17">
-        <v>7305600.400000</v>
-      </c>
-      <c r="E17">
-        <v>120331.100000</v>
-      </c>
       <c r="F17">
+        <v>0.000000</v>
+      </c>
+      <c r="G17">
         <v>181705.000000</v>
-      </c>
-      <c r="G17">
-        <v>0.000000</v>
       </c>
       <c r="H17">
         <v>9147.200000</v>
@@ -18928,22 +18928,22 @@
         <v>19</v>
       </c>
       <c r="B18">
+        <v>4469281.800000</v>
+      </c>
+      <c r="C18">
+        <v>106265.200000</v>
+      </c>
+      <c r="D18">
         <v>913387.900000</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>15467.200000</v>
       </c>
-      <c r="D18">
-        <v>4469281.800000</v>
-      </c>
-      <c r="E18">
-        <v>106265.200000</v>
-      </c>
       <c r="F18">
+        <v>550.000000</v>
+      </c>
+      <c r="G18">
         <v>538934.200000</v>
-      </c>
-      <c r="G18">
-        <v>550.000000</v>
       </c>
       <c r="H18">
         <v>20000.000000</v>
@@ -18954,22 +18954,22 @@
         <v>20</v>
       </c>
       <c r="B19">
+        <v>8510924.400000</v>
+      </c>
+      <c r="C19">
+        <v>56893.500000</v>
+      </c>
+      <c r="D19">
         <v>1453502.400000</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>80146.000000</v>
       </c>
-      <c r="D19">
-        <v>8510924.400000</v>
-      </c>
-      <c r="E19">
-        <v>56893.500000</v>
-      </c>
       <c r="F19">
+        <v>2451.400000</v>
+      </c>
+      <c r="G19">
         <v>305166.100000</v>
-      </c>
-      <c r="G19">
-        <v>2451.400000</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -18977,22 +18977,22 @@
         <v>21</v>
       </c>
       <c r="B20">
+        <v>15691145.100000</v>
+      </c>
+      <c r="C20">
+        <v>613409.200000</v>
+      </c>
+      <c r="D20">
         <v>1057244.800000</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>65369.100000</v>
       </c>
-      <c r="D20">
-        <v>15691145.100000</v>
-      </c>
-      <c r="E20">
-        <v>613409.200000</v>
-      </c>
       <c r="F20">
+        <v>18704.500000</v>
+      </c>
+      <c r="G20">
         <v>115187.700000</v>
-      </c>
-      <c r="G20">
-        <v>18704.500000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -19000,22 +19000,22 @@
         <v>22</v>
       </c>
       <c r="B21">
+        <v>11060337.900000</v>
+      </c>
+      <c r="C21">
+        <v>233812.400000</v>
+      </c>
+      <c r="D21">
         <v>791366.300000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>141574.700000</v>
       </c>
-      <c r="D21">
-        <v>11060337.900000</v>
-      </c>
-      <c r="E21">
-        <v>233812.400000</v>
-      </c>
       <c r="F21">
+        <v>8421.600000</v>
+      </c>
+      <c r="G21">
         <v>333111.300000</v>
-      </c>
-      <c r="G21">
-        <v>8421.600000</v>
       </c>
       <c r="H21">
         <v>5893.000000</v>
@@ -19026,22 +19026,22 @@
         <v>23</v>
       </c>
       <c r="B22">
+        <v>11498773.500000</v>
+      </c>
+      <c r="C22">
+        <v>502661.100000</v>
+      </c>
+      <c r="D22">
         <v>747134.900000</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>859097.300000</v>
       </c>
-      <c r="D22">
-        <v>11498773.500000</v>
-      </c>
-      <c r="E22">
-        <v>502661.100000</v>
-      </c>
       <c r="F22">
+        <v>346765.400000</v>
+      </c>
+      <c r="G22">
         <v>2011447.000000</v>
-      </c>
-      <c r="G22">
-        <v>346765.400000</v>
       </c>
       <c r="H22">
         <v>248893.100000</v>
@@ -19052,22 +19052,22 @@
         <v>24</v>
       </c>
       <c r="B23">
+        <v>12324541.900000</v>
+      </c>
+      <c r="C23">
+        <v>952652.500000</v>
+      </c>
+      <c r="D23">
         <v>2076560.800000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>715255.100000</v>
       </c>
-      <c r="D23">
-        <v>12324541.900000</v>
-      </c>
-      <c r="E23">
-        <v>952652.500000</v>
-      </c>
       <c r="F23">
+        <v>1345136.600000</v>
+      </c>
+      <c r="G23">
         <v>1918845.200000</v>
-      </c>
-      <c r="G23">
-        <v>1345136.600000</v>
       </c>
       <c r="H23">
         <v>141539.400000</v>
@@ -19078,22 +19078,22 @@
         <v>25</v>
       </c>
       <c r="B24">
+        <v>13659916.300000</v>
+      </c>
+      <c r="C24">
+        <v>1126551.500000</v>
+      </c>
+      <c r="D24">
         <v>3729285.400000</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>1507028.400000</v>
       </c>
-      <c r="D24">
-        <v>13659916.300000</v>
-      </c>
-      <c r="E24">
-        <v>1126551.500000</v>
-      </c>
       <c r="F24">
+        <v>1234467.700000</v>
+      </c>
+      <c r="G24">
         <v>3208649.100000</v>
-      </c>
-      <c r="G24">
-        <v>1234467.700000</v>
       </c>
       <c r="H24">
         <v>98771.800000</v>
@@ -19104,22 +19104,22 @@
         <v>26</v>
       </c>
       <c r="B25">
+        <v>17325114.400000</v>
+      </c>
+      <c r="C25">
+        <v>888871.700000</v>
+      </c>
+      <c r="D25">
         <v>3395348.800000</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>1498148.100000</v>
       </c>
-      <c r="D25">
-        <v>17325114.400000</v>
-      </c>
-      <c r="E25">
-        <v>888871.700000</v>
-      </c>
       <c r="F25">
+        <v>2414156.100000</v>
+      </c>
+      <c r="G25">
         <v>2773401.700000</v>
-      </c>
-      <c r="G25">
-        <v>2414156.100000</v>
       </c>
       <c r="H25">
         <v>321228.900000</v>
@@ -19130,22 +19130,22 @@
         <v>27</v>
       </c>
       <c r="B26">
+        <v>15436694.000000</v>
+      </c>
+      <c r="C26">
+        <v>993372.000000</v>
+      </c>
+      <c r="D26">
         <v>3844568.600000</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>2055664.900000</v>
       </c>
-      <c r="D26">
-        <v>15436694.000000</v>
-      </c>
-      <c r="E26">
-        <v>993372.000000</v>
-      </c>
       <c r="F26">
+        <v>1413951.400000</v>
+      </c>
+      <c r="G26">
         <v>4673632.500000</v>
-      </c>
-      <c r="G26">
-        <v>1413951.400000</v>
       </c>
       <c r="H26">
         <v>111815.100000</v>
@@ -19156,22 +19156,22 @@
         <v>28</v>
       </c>
       <c r="B27">
+        <v>15432956.000000</v>
+      </c>
+      <c r="C27">
+        <v>1265076.300000</v>
+      </c>
+      <c r="D27">
         <v>3732755.900000</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>1560423.000000</v>
       </c>
-      <c r="D27">
-        <v>15432956.000000</v>
-      </c>
-      <c r="E27">
-        <v>1265076.300000</v>
-      </c>
       <c r="F27">
+        <v>1155656.100000</v>
+      </c>
+      <c r="G27">
         <v>5842854.700000</v>
-      </c>
-      <c r="G27">
-        <v>1155656.100000</v>
       </c>
       <c r="H27">
         <v>286218.800000</v>
@@ -19182,22 +19182,22 @@
         <v>29</v>
       </c>
       <c r="B28">
+        <v>14772616.700000</v>
+      </c>
+      <c r="C28">
+        <v>947893.400000</v>
+      </c>
+      <c r="D28">
         <v>5665323.300000</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>2765031.500000</v>
       </c>
-      <c r="D28">
-        <v>14772616.700000</v>
-      </c>
-      <c r="E28">
-        <v>947893.400000</v>
-      </c>
       <c r="F28">
+        <v>1682924.000000</v>
+      </c>
+      <c r="G28">
         <v>2588747.200000</v>
-      </c>
-      <c r="G28">
-        <v>1682924.000000</v>
       </c>
       <c r="H28">
         <v>541538.700000</v>
@@ -19208,22 +19208,22 @@
         <v>30</v>
       </c>
       <c r="B29">
+        <v>16761081.200000</v>
+      </c>
+      <c r="C29">
+        <v>1157902.600000</v>
+      </c>
+      <c r="D29">
         <v>5497435.300000</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>3486971.600000</v>
       </c>
-      <c r="D29">
-        <v>16761081.200000</v>
-      </c>
-      <c r="E29">
-        <v>1157902.600000</v>
-      </c>
       <c r="F29">
+        <v>2008780.700000</v>
+      </c>
+      <c r="G29">
         <v>2887516.000000</v>
-      </c>
-      <c r="G29">
-        <v>2008780.700000</v>
       </c>
       <c r="H29">
         <v>440064.400000</v>
@@ -19234,22 +19234,22 @@
         <v>31</v>
       </c>
       <c r="B30">
+        <v>17045952.000000</v>
+      </c>
+      <c r="C30">
+        <v>1354376.800000</v>
+      </c>
+      <c r="D30">
         <v>4839353.200000</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>2323900.600000</v>
       </c>
-      <c r="D30">
-        <v>17045952.000000</v>
-      </c>
-      <c r="E30">
-        <v>1354376.800000</v>
-      </c>
       <c r="F30">
+        <v>1419129.700000</v>
+      </c>
+      <c r="G30">
         <v>1954439.800000</v>
-      </c>
-      <c r="G30">
-        <v>1419129.700000</v>
       </c>
       <c r="H30">
         <v>370755.600000</v>
@@ -19260,22 +19260,22 @@
         <v>32</v>
       </c>
       <c r="B31">
+        <v>15476373.600000</v>
+      </c>
+      <c r="C31">
+        <v>823579.000000</v>
+      </c>
+      <c r="D31">
         <v>4251363.500000</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>3497229.200000</v>
       </c>
-      <c r="D31">
-        <v>15476373.600000</v>
-      </c>
-      <c r="E31">
-        <v>823579.000000</v>
-      </c>
       <c r="F31">
+        <v>987164.600000</v>
+      </c>
+      <c r="G31">
         <v>2131484.200000</v>
-      </c>
-      <c r="G31">
-        <v>987164.600000</v>
       </c>
       <c r="H31">
         <v>1041566.600000</v>
@@ -19286,22 +19286,22 @@
         <v>33</v>
       </c>
       <c r="B32">
+        <v>13499346.400000</v>
+      </c>
+      <c r="C32">
+        <v>676584.000000</v>
+      </c>
+      <c r="D32">
         <v>6188808.800000</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>3513418.300000</v>
       </c>
-      <c r="D32">
-        <v>13499346.400000</v>
-      </c>
-      <c r="E32">
-        <v>676584.000000</v>
-      </c>
       <c r="F32">
+        <v>578256.300000</v>
+      </c>
+      <c r="G32">
         <v>1624151.800000</v>
-      </c>
-      <c r="G32">
-        <v>578256.300000</v>
       </c>
       <c r="H32">
         <v>2585706.600000</v>
@@ -19312,25 +19312,25 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>4213017.700000</v>
+        <v>14075151.700000</v>
       </c>
       <c r="C33">
-        <v>3429698.400000</v>
+        <v>775180.500000</v>
       </c>
       <c r="D33">
-        <v>10557668.700000</v>
+        <v>5368592.200000</v>
       </c>
       <c r="E33">
-        <v>501727.200000</v>
+        <v>4897520.500000</v>
       </c>
       <c r="F33">
-        <v>1143643.200000</v>
+        <v>1521575.800000</v>
       </c>
       <c r="G33">
-        <v>986792.800000</v>
+        <v>1621794.500000</v>
       </c>
       <c r="H33">
-        <v>1889259.100000</v>
+        <v>2833253.800000</v>
       </c>
     </row>
   </sheetData>
@@ -19350,16 +19350,16 @@
     <row r="1" spans="1:8">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>62</v>
@@ -19376,16 +19376,16 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>535952.800000</v>
+        <v>15453.100000</v>
       </c>
       <c r="C2">
         <v>1804814.500000</v>
       </c>
       <c r="D2">
+        <v>535952.800000</v>
+      </c>
+      <c r="E2">
         <v>47108.600000</v>
-      </c>
-      <c r="E2">
-        <v>15453.100000</v>
       </c>
       <c r="F2">
         <v>61058.200000</v>
@@ -19399,16 +19399,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>304608.900000</v>
+        <v>153606.100000</v>
       </c>
       <c r="C3">
         <v>2864436.900000</v>
       </c>
       <c r="D3">
+        <v>304608.900000</v>
+      </c>
+      <c r="E3">
         <v>50736.000000</v>
-      </c>
-      <c r="E3">
-        <v>153606.100000</v>
       </c>
       <c r="F3">
         <v>287906.700000</v>
@@ -19422,16 +19422,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>601342.800000</v>
+        <v>191003.300000</v>
       </c>
       <c r="C4">
         <v>3244137.100000</v>
       </c>
       <c r="D4">
+        <v>601342.800000</v>
+      </c>
+      <c r="E4">
         <v>22828.300000</v>
-      </c>
-      <c r="E4">
-        <v>191003.300000</v>
       </c>
       <c r="F4">
         <v>790622.100000</v>
@@ -19448,16 +19448,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>517159.100000</v>
+        <v>23377.800000</v>
       </c>
       <c r="C5">
         <v>7507147.700000</v>
       </c>
       <c r="D5">
+        <v>517159.100000</v>
+      </c>
+      <c r="E5">
         <v>20554.200000</v>
-      </c>
-      <c r="E5">
-        <v>23377.800000</v>
       </c>
       <c r="F5">
         <v>225728.100000</v>
@@ -19471,16 +19471,16 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1471000.200000</v>
+        <v>236480.200000</v>
       </c>
       <c r="C6">
         <v>9934580.000000</v>
       </c>
       <c r="D6">
+        <v>1471000.200000</v>
+      </c>
+      <c r="E6">
         <v>522876.200000</v>
-      </c>
-      <c r="E6">
-        <v>236480.200000</v>
       </c>
       <c r="F6">
         <v>496999.800000</v>
@@ -19497,16 +19497,16 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1293953.100000</v>
+        <v>106903.300000</v>
       </c>
       <c r="C7">
         <v>9677723.100000</v>
       </c>
       <c r="D7">
+        <v>1293953.100000</v>
+      </c>
+      <c r="E7">
         <v>37254.100000</v>
-      </c>
-      <c r="E7">
-        <v>106903.300000</v>
       </c>
       <c r="F7">
         <v>124923.200000</v>
@@ -19523,16 +19523,16 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2610132.000000</v>
+        <v>552575.100000</v>
       </c>
       <c r="C8">
         <v>14530315.300000</v>
       </c>
       <c r="D8">
+        <v>2610132.000000</v>
+      </c>
+      <c r="E8">
         <v>499283.600000</v>
-      </c>
-      <c r="E8">
-        <v>552575.100000</v>
       </c>
       <c r="F8">
         <v>419663.600000</v>
@@ -19549,16 +19549,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4258321.200000</v>
+        <v>118368.400000</v>
       </c>
       <c r="C9">
         <v>13638810.500000</v>
       </c>
       <c r="D9">
+        <v>4258321.200000</v>
+      </c>
+      <c r="E9">
         <v>333157.000000</v>
-      </c>
-      <c r="E9">
-        <v>118368.400000</v>
       </c>
       <c r="F9">
         <v>290839.800000</v>
@@ -19569,16 +19569,16 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1664844.600000</v>
+        <v>234582.400000</v>
       </c>
       <c r="C10">
         <v>12592875.300000</v>
       </c>
       <c r="D10">
+        <v>1664844.600000</v>
+      </c>
+      <c r="E10">
         <v>118029.100000</v>
-      </c>
-      <c r="E10">
-        <v>234582.400000</v>
       </c>
       <c r="F10">
         <v>315682.400000</v>
@@ -19592,16 +19592,16 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4179321.400000</v>
+        <v>375488.100000</v>
       </c>
       <c r="C11">
         <v>10066076.900000</v>
       </c>
       <c r="D11">
+        <v>4179321.400000</v>
+      </c>
+      <c r="E11">
         <v>831919.200000</v>
-      </c>
-      <c r="E11">
-        <v>375488.100000</v>
       </c>
       <c r="F11">
         <v>590230.000000</v>
@@ -19618,16 +19618,16 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>3069584.700000</v>
+        <v>122472.700000</v>
       </c>
       <c r="C12">
         <v>14102949.800000</v>
       </c>
       <c r="D12">
+        <v>3069584.700000</v>
+      </c>
+      <c r="E12">
         <v>738545.600000</v>
-      </c>
-      <c r="E12">
-        <v>122472.700000</v>
       </c>
       <c r="F12">
         <v>3965361.000000</v>
@@ -19641,16 +19641,16 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>3030708.100000</v>
+        <v>319351.300000</v>
       </c>
       <c r="C13">
         <v>5201134.100000</v>
       </c>
       <c r="D13">
+        <v>3030708.100000</v>
+      </c>
+      <c r="E13">
         <v>571393.700000</v>
-      </c>
-      <c r="E13">
-        <v>319351.300000</v>
       </c>
       <c r="F13">
         <v>975723.300000</v>
@@ -19664,16 +19664,16 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>264914.400000</v>
+        <v>46293.700000</v>
       </c>
       <c r="C14">
         <v>14676653.200000</v>
       </c>
       <c r="D14">
+        <v>264914.400000</v>
+      </c>
+      <c r="E14">
         <v>36027.700000</v>
-      </c>
-      <c r="E14">
-        <v>46293.700000</v>
       </c>
       <c r="F14">
         <v>6566023.100000</v>
@@ -19687,16 +19687,16 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1842898.900000</v>
+        <v>49140.800000</v>
       </c>
       <c r="C15">
         <v>10392836.400000</v>
       </c>
       <c r="D15">
+        <v>1842898.900000</v>
+      </c>
+      <c r="E15">
         <v>275558.100000</v>
-      </c>
-      <c r="E15">
-        <v>49140.800000</v>
       </c>
       <c r="F15">
         <v>418625.400000</v>
@@ -19710,16 +19710,16 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>2583418.600000</v>
+        <v>240463.200000</v>
       </c>
       <c r="C16">
         <v>8263731.700000</v>
       </c>
       <c r="D16">
+        <v>2583418.600000</v>
+      </c>
+      <c r="E16">
         <v>164417.300000</v>
-      </c>
-      <c r="E16">
-        <v>240463.200000</v>
       </c>
       <c r="F16">
         <v>5520300.000000</v>
@@ -19733,16 +19733,16 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>13822696.100000</v>
+        <v>66092.200000</v>
       </c>
       <c r="C17">
         <v>14986120.100000</v>
       </c>
       <c r="D17">
+        <v>13822696.100000</v>
+      </c>
+      <c r="E17">
         <v>509044.700000</v>
-      </c>
-      <c r="E17">
-        <v>66092.200000</v>
       </c>
       <c r="F17">
         <v>1757022.700000</v>
@@ -19759,16 +19759,16 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>4595046.300000</v>
+        <v>104826.600000</v>
       </c>
       <c r="C18">
         <v>16165437.600000</v>
       </c>
       <c r="D18">
+        <v>4595046.300000</v>
+      </c>
+      <c r="E18">
         <v>68591.600000</v>
-      </c>
-      <c r="E18">
-        <v>104826.600000</v>
       </c>
       <c r="F18">
         <v>2720461.900000</v>
@@ -19785,16 +19785,16 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>11946695.600000</v>
+        <v>15651.800000</v>
       </c>
       <c r="C19">
         <v>19256442.500000</v>
       </c>
       <c r="D19">
+        <v>11946695.600000</v>
+      </c>
+      <c r="E19">
         <v>3881604.500000</v>
-      </c>
-      <c r="E19">
-        <v>15651.800000</v>
       </c>
       <c r="F19">
         <v>1566367.300000</v>
@@ -19805,16 +19805,16 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>4845129.300000</v>
+        <v>28991.000000</v>
       </c>
       <c r="C20">
         <v>13867508.900000</v>
       </c>
       <c r="D20">
+        <v>4845129.300000</v>
+      </c>
+      <c r="E20">
         <v>1147479.200000</v>
-      </c>
-      <c r="E20">
-        <v>28991.000000</v>
       </c>
       <c r="F20">
         <v>1909708.300000</v>
@@ -19828,16 +19828,16 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>7820502.200000</v>
+        <v>50838.800000</v>
       </c>
       <c r="C21">
         <v>31258257.500000</v>
       </c>
       <c r="D21">
+        <v>7820502.200000</v>
+      </c>
+      <c r="E21">
         <v>1343663.400000</v>
-      </c>
-      <c r="E21">
-        <v>50838.800000</v>
       </c>
       <c r="F21">
         <v>2834343.500000</v>
@@ -19851,16 +19851,16 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>4224207.500000</v>
+        <v>2119270.200000</v>
       </c>
       <c r="C22">
         <v>35140356.700000</v>
       </c>
       <c r="D22">
+        <v>4224207.500000</v>
+      </c>
+      <c r="E22">
         <v>4337578.300000</v>
-      </c>
-      <c r="E22">
-        <v>2119270.200000</v>
       </c>
       <c r="F22">
         <v>14575581.000000</v>
@@ -19877,16 +19877,16 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>16334259.400000</v>
+        <v>356741.600000</v>
       </c>
       <c r="C23">
         <v>37176193.300000</v>
       </c>
       <c r="D23">
+        <v>16334259.400000</v>
+      </c>
+      <c r="E23">
         <v>7227516.500000</v>
-      </c>
-      <c r="E23">
-        <v>356741.600000</v>
       </c>
       <c r="F23">
         <v>13467394.300000</v>
@@ -19903,16 +19903,16 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>14256241.300000</v>
+        <v>3167756.200000</v>
       </c>
       <c r="C24">
         <v>52692942.000000</v>
       </c>
       <c r="D24">
+        <v>14256241.300000</v>
+      </c>
+      <c r="E24">
         <v>4900987.200000</v>
-      </c>
-      <c r="E24">
-        <v>3167756.200000</v>
       </c>
       <c r="F24">
         <v>16739690.700000</v>
@@ -19929,16 +19929,16 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>22913755.200000</v>
+        <v>4400244.600000</v>
       </c>
       <c r="C25">
         <v>66507746.400000</v>
       </c>
       <c r="D25">
+        <v>22913755.200000</v>
+      </c>
+      <c r="E25">
         <v>3624187.800000</v>
-      </c>
-      <c r="E25">
-        <v>4400244.600000</v>
       </c>
       <c r="F25">
         <v>28713606.900000</v>
@@ -19955,16 +19955,16 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>29560849.100000</v>
+        <v>468870.500000</v>
       </c>
       <c r="C26">
         <v>97057091.400000</v>
       </c>
       <c r="D26">
+        <v>29560849.100000</v>
+      </c>
+      <c r="E26">
         <v>7113480.400000</v>
-      </c>
-      <c r="E26">
-        <v>468870.500000</v>
       </c>
       <c r="F26">
         <v>21419543.700000</v>
@@ -19981,16 +19981,16 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>37751695.400000</v>
+        <v>2893876.100000</v>
       </c>
       <c r="C27">
         <v>103758364.800000</v>
       </c>
       <c r="D27">
+        <v>37751695.400000</v>
+      </c>
+      <c r="E27">
         <v>13667912.300000</v>
-      </c>
-      <c r="E27">
-        <v>2893876.100000</v>
       </c>
       <c r="F27">
         <v>20007119.200000</v>
@@ -20007,16 +20007,16 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>39823618.500000</v>
+        <v>2647282.200000</v>
       </c>
       <c r="C28">
         <v>126353977.200000</v>
       </c>
       <c r="D28">
+        <v>39823618.500000</v>
+      </c>
+      <c r="E28">
         <v>13566245.700000</v>
-      </c>
-      <c r="E28">
-        <v>2647282.200000</v>
       </c>
       <c r="F28">
         <v>33588422.600000</v>
@@ -20033,16 +20033,16 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>46464044.300000</v>
+        <v>7087827.100000</v>
       </c>
       <c r="C29">
         <v>166000030.000000</v>
       </c>
       <c r="D29">
+        <v>46464044.300000</v>
+      </c>
+      <c r="E29">
         <v>10084623.800000</v>
-      </c>
-      <c r="E29">
-        <v>7087827.100000</v>
       </c>
       <c r="F29">
         <v>30234049.200000</v>
@@ -20059,16 +20059,16 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>57820405.100000</v>
+        <v>9929982.600000</v>
       </c>
       <c r="C30">
         <v>176952934.000000</v>
       </c>
       <c r="D30">
+        <v>57820405.100000</v>
+      </c>
+      <c r="E30">
         <v>23499359.800000</v>
-      </c>
-      <c r="E30">
-        <v>9929982.600000</v>
       </c>
       <c r="F30">
         <v>56956996.000000</v>
@@ -20085,16 +20085,16 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>90491770.800000</v>
+        <v>14664722.000000</v>
       </c>
       <c r="C31">
         <v>202493634.300000</v>
       </c>
       <c r="D31">
+        <v>90491770.800000</v>
+      </c>
+      <c r="E31">
         <v>24229659.800000</v>
-      </c>
-      <c r="E31">
-        <v>14664722.000000</v>
       </c>
       <c r="F31">
         <v>52704872.400000</v>
@@ -20111,16 +20111,16 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>111623238.800000</v>
+        <v>15043551.600000</v>
       </c>
       <c r="C32">
         <v>214451033.200000</v>
       </c>
       <c r="D32">
+        <v>111623238.800000</v>
+      </c>
+      <c r="E32">
         <v>21211245.800000</v>
-      </c>
-      <c r="E32">
-        <v>15043551.600000</v>
       </c>
       <c r="F32">
         <v>45421959.000000</v>
@@ -20137,25 +20137,25 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>82358992.400000</v>
+        <v>19188334.400000</v>
       </c>
       <c r="C33">
-        <v>164597502.700000</v>
+        <v>227270938.700000</v>
       </c>
       <c r="D33">
-        <v>20982541.200000</v>
+        <v>106924542.400000</v>
       </c>
       <c r="E33">
-        <v>14021096.700000</v>
+        <v>24301490.000000</v>
       </c>
       <c r="F33">
-        <v>40568540.400000</v>
+        <v>62226987.300000</v>
       </c>
       <c r="G33">
-        <v>1299652.800000</v>
+        <v>1546397.400000</v>
       </c>
       <c r="H33">
-        <v>3897967.000000</v>
+        <v>5604956.200000</v>
       </c>
     </row>
   </sheetData>
@@ -20175,44 +20175,44 @@
     <row r="1" spans="1:8">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
       <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
       </c>
       <c r="H1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>89.000000</v>
+      </c>
+      <c r="C2">
+        <v>3.000000</v>
+      </c>
+      <c r="D2">
         <v>5.000000</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>4.000000</v>
       </c>
-      <c r="D2">
-        <v>89.000000</v>
-      </c>
-      <c r="E2">
-        <v>3.000000</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.000000</v>
       </c>
     </row>
@@ -20221,22 +20221,22 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>135.000000</v>
+      </c>
+      <c r="C3">
+        <v>1.000000</v>
+      </c>
+      <c r="D3">
         <v>12.000000</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2.000000</v>
       </c>
-      <c r="D3">
-        <v>135.000000</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.000000</v>
-      </c>
-      <c r="G3">
-        <v>1.000000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -20244,41 +20244,41 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>136.000000</v>
+      </c>
+      <c r="C4">
+        <v>4.000000</v>
+      </c>
+      <c r="D4">
         <v>12.000000</v>
       </c>
-      <c r="D4">
-        <v>136.000000</v>
-      </c>
-      <c r="E4">
-        <v>4.000000</v>
-      </c>
       <c r="F4">
+        <v>2.000000</v>
+      </c>
+      <c r="G4">
         <v>5.000000</v>
-      </c>
-      <c r="G4">
-        <v>2.000000</v>
       </c>
       <c r="H4">
         <v>1.000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
+        <v>162.000000</v>
+      </c>
+      <c r="C5">
+        <v>4.000000</v>
+      </c>
+      <c r="D5">
         <v>13.000000</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>2.000000</v>
       </c>
-      <c r="D5">
-        <v>162.000000</v>
-      </c>
-      <c r="E5">
-        <v>4.000000</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.000000</v>
       </c>
     </row>
@@ -20287,22 +20287,22 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <v>337.000000</v>
+      </c>
+      <c r="C6">
+        <v>16.000000</v>
+      </c>
+      <c r="D6">
         <v>30.000000</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>8.000000</v>
       </c>
-      <c r="D6">
-        <v>337.000000</v>
-      </c>
-      <c r="E6">
-        <v>16.000000</v>
-      </c>
       <c r="F6">
+        <v>2.000000</v>
+      </c>
+      <c r="G6">
         <v>5.000000</v>
-      </c>
-      <c r="G6">
-        <v>2.000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -20310,16 +20310,16 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>249.000000</v>
+      </c>
+      <c r="C7">
+        <v>6.000000</v>
+      </c>
+      <c r="D7">
         <v>31.000000</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>2.000000</v>
-      </c>
-      <c r="D7">
-        <v>249.000000</v>
-      </c>
-      <c r="E7">
-        <v>6.000000</v>
       </c>
       <c r="F7">
         <v>3.000000</v>
@@ -20333,22 +20333,22 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>325.000000</v>
+      </c>
+      <c r="C8">
+        <v>9.000000</v>
+      </c>
+      <c r="D8">
         <v>20.000000</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>5.000000</v>
       </c>
-      <c r="D8">
-        <v>325.000000</v>
-      </c>
-      <c r="E8">
-        <v>9.000000</v>
-      </c>
       <c r="F8">
+        <v>3.000000</v>
+      </c>
+      <c r="G8">
         <v>4.000000</v>
-      </c>
-      <c r="G8">
-        <v>3.000000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -20356,22 +20356,22 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>276.000000</v>
+      </c>
+      <c r="C9">
+        <v>8.000000</v>
+      </c>
+      <c r="D9">
         <v>40.000000</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>6.000000</v>
       </c>
-      <c r="D9">
-        <v>276.000000</v>
-      </c>
-      <c r="E9">
-        <v>8.000000</v>
-      </c>
       <c r="F9">
+        <v>1.000000</v>
+      </c>
+      <c r="G9">
         <v>4.000000</v>
-      </c>
-      <c r="G9">
-        <v>1.000000</v>
       </c>
       <c r="H9">
         <v>1.000000</v>
@@ -20382,22 +20382,22 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>340.000000</v>
+      </c>
+      <c r="C10">
+        <v>14.000000</v>
+      </c>
+      <c r="D10">
         <v>57.000000</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>5.000000</v>
       </c>
-      <c r="D10">
-        <v>340.000000</v>
-      </c>
-      <c r="E10">
-        <v>14.000000</v>
-      </c>
       <c r="F10">
+        <v>1.000000</v>
+      </c>
+      <c r="G10">
         <v>4.000000</v>
-      </c>
-      <c r="G10">
-        <v>1.000000</v>
       </c>
       <c r="H10">
         <v>2.000000</v>
@@ -20408,22 +20408,22 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>403.000000</v>
+      </c>
+      <c r="C11">
+        <v>28.000000</v>
+      </c>
+      <c r="D11">
         <v>55.000000</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>10.000000</v>
       </c>
-      <c r="D11">
-        <v>403.000000</v>
-      </c>
-      <c r="E11">
-        <v>28.000000</v>
-      </c>
       <c r="F11">
+        <v>1.000000</v>
+      </c>
+      <c r="G11">
         <v>9.000000</v>
-      </c>
-      <c r="G11">
-        <v>1.000000</v>
       </c>
       <c r="H11">
         <v>3.000000</v>
@@ -20434,22 +20434,22 @@
         <v>13</v>
       </c>
       <c r="B12">
+        <v>529.000000</v>
+      </c>
+      <c r="C12">
+        <v>33.000000</v>
+      </c>
+      <c r="D12">
         <v>69.000000</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>11.000000</v>
       </c>
-      <c r="D12">
-        <v>529.000000</v>
-      </c>
-      <c r="E12">
-        <v>33.000000</v>
-      </c>
       <c r="F12">
+        <v>6.000000</v>
+      </c>
+      <c r="G12">
         <v>9.000000</v>
-      </c>
-      <c r="G12">
-        <v>6.000000</v>
       </c>
       <c r="H12">
         <v>1.000000</v>
@@ -20460,22 +20460,22 @@
         <v>14</v>
       </c>
       <c r="B13">
+        <v>371.000000</v>
+      </c>
+      <c r="C13">
+        <v>29.000000</v>
+      </c>
+      <c r="D13">
         <v>52.000000</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>4.000000</v>
       </c>
-      <c r="D13">
-        <v>371.000000</v>
-      </c>
-      <c r="E13">
-        <v>29.000000</v>
-      </c>
       <c r="F13">
+        <v>1.000000</v>
+      </c>
+      <c r="G13">
         <v>10.000000</v>
-      </c>
-      <c r="G13">
-        <v>1.000000</v>
       </c>
       <c r="H13">
         <v>1.000000</v>
@@ -20486,22 +20486,22 @@
         <v>15</v>
       </c>
       <c r="B14">
+        <v>394.000000</v>
+      </c>
+      <c r="C14">
+        <v>27.000000</v>
+      </c>
+      <c r="D14">
         <v>32.000000</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>8.000000</v>
       </c>
-      <c r="D14">
-        <v>394.000000</v>
-      </c>
-      <c r="E14">
-        <v>27.000000</v>
-      </c>
       <c r="F14">
+        <v>3.000000</v>
+      </c>
+      <c r="G14">
         <v>13.000000</v>
-      </c>
-      <c r="G14">
-        <v>3.000000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -20509,41 +20509,41 @@
         <v>16</v>
       </c>
       <c r="B15">
+        <v>534.000000</v>
+      </c>
+      <c r="C15">
+        <v>22.000000</v>
+      </c>
+      <c r="D15">
         <v>33.000000</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>6.000000</v>
       </c>
-      <c r="D15">
-        <v>534.000000</v>
-      </c>
-      <c r="E15">
-        <v>22.000000</v>
-      </c>
       <c r="F15">
+        <v>1.000000</v>
+      </c>
+      <c r="G15">
         <v>16.000000</v>
       </c>
-      <c r="G15">
-        <v>1.000000</v>
-      </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
+        <v>519.000000</v>
+      </c>
+      <c r="C16">
+        <v>27.000000</v>
+      </c>
+      <c r="D16">
         <v>54.000000</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>4.000000</v>
       </c>
-      <c r="D16">
-        <v>519.000000</v>
-      </c>
-      <c r="E16">
-        <v>27.000000</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>5.000000</v>
       </c>
     </row>
@@ -20552,22 +20552,22 @@
         <v>18</v>
       </c>
       <c r="B17">
+        <v>730.000000</v>
+      </c>
+      <c r="C17">
+        <v>117.000000</v>
+      </c>
+      <c r="D17">
         <v>55.000000</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>6.000000</v>
       </c>
-      <c r="D17">
-        <v>730.000000</v>
-      </c>
-      <c r="E17">
-        <v>117.000000</v>
-      </c>
       <c r="F17">
+        <v>2.000000</v>
+      </c>
+      <c r="G17">
         <v>13.000000</v>
-      </c>
-      <c r="G17">
-        <v>2.000000</v>
       </c>
       <c r="H17">
         <v>4.000000</v>
@@ -20578,22 +20578,22 @@
         <v>19</v>
       </c>
       <c r="B18">
+        <v>725.000000</v>
+      </c>
+      <c r="C18">
+        <v>84.000000</v>
+      </c>
+      <c r="D18">
         <v>58.000000</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>9.000000</v>
       </c>
-      <c r="D18">
-        <v>725.000000</v>
-      </c>
-      <c r="E18">
-        <v>84.000000</v>
-      </c>
       <c r="F18">
+        <v>1.000000</v>
+      </c>
+      <c r="G18">
         <v>17.000000</v>
-      </c>
-      <c r="G18">
-        <v>1.000000</v>
       </c>
       <c r="H18">
         <v>1.000000</v>
@@ -20604,22 +20604,22 @@
         <v>20</v>
       </c>
       <c r="B19">
+        <v>799.000000</v>
+      </c>
+      <c r="C19">
         <v>82.000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <v>82.000000</v>
+      </c>
+      <c r="E19">
         <v>9.000000</v>
       </c>
-      <c r="D19">
-        <v>799.000000</v>
-      </c>
-      <c r="E19">
-        <v>82.000000</v>
-      </c>
       <c r="F19">
+        <v>2.000000</v>
+      </c>
+      <c r="G19">
         <v>28.000000</v>
-      </c>
-      <c r="G19">
-        <v>2.000000</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -20627,22 +20627,22 @@
         <v>21</v>
       </c>
       <c r="B20">
+        <v>949.000000</v>
+      </c>
+      <c r="C20">
+        <v>62.000000</v>
+      </c>
+      <c r="D20">
         <v>100.000000</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>14.000000</v>
       </c>
-      <c r="D20">
-        <v>949.000000</v>
-      </c>
-      <c r="E20">
-        <v>62.000000</v>
-      </c>
       <c r="F20">
+        <v>4.000000</v>
+      </c>
+      <c r="G20">
         <v>19.000000</v>
-      </c>
-      <c r="G20">
-        <v>4.000000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -20650,22 +20650,22 @@
         <v>22</v>
       </c>
       <c r="B21">
+        <v>959.000000</v>
+      </c>
+      <c r="C21">
+        <v>100.000000</v>
+      </c>
+      <c r="D21">
         <v>127.000000</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>16.000000</v>
       </c>
-      <c r="D21">
-        <v>959.000000</v>
-      </c>
-      <c r="E21">
-        <v>100.000000</v>
-      </c>
       <c r="F21">
+        <v>4.000000</v>
+      </c>
+      <c r="G21">
         <v>36.000000</v>
-      </c>
-      <c r="G21">
-        <v>4.000000</v>
       </c>
       <c r="H21">
         <v>2.000000</v>
@@ -20676,22 +20676,22 @@
         <v>23</v>
       </c>
       <c r="B22">
+        <v>1969.000000</v>
+      </c>
+      <c r="C22">
+        <v>372.000000</v>
+      </c>
+      <c r="D22">
         <v>359.000000</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>79.000000</v>
       </c>
-      <c r="D22">
-        <v>1969.000000</v>
-      </c>
-      <c r="E22">
-        <v>372.000000</v>
-      </c>
       <c r="F22">
+        <v>28.000000</v>
+      </c>
+      <c r="G22">
         <v>252.000000</v>
-      </c>
-      <c r="G22">
-        <v>28.000000</v>
       </c>
       <c r="H22">
         <v>10.000000</v>
@@ -20702,22 +20702,22 @@
         <v>24</v>
       </c>
       <c r="B23">
+        <v>2241.000000</v>
+      </c>
+      <c r="C23">
+        <v>403.000000</v>
+      </c>
+      <c r="D23">
         <v>519.000000</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>100.000000</v>
       </c>
-      <c r="D23">
-        <v>2241.000000</v>
-      </c>
-      <c r="E23">
-        <v>403.000000</v>
-      </c>
       <c r="F23">
+        <v>57.000000</v>
+      </c>
+      <c r="G23">
         <v>272.000000</v>
-      </c>
-      <c r="G23">
-        <v>57.000000</v>
       </c>
       <c r="H23">
         <v>22.000000</v>
@@ -20728,22 +20728,22 @@
         <v>25</v>
       </c>
       <c r="B24">
+        <v>2807.000000</v>
+      </c>
+      <c r="C24">
+        <v>477.000000</v>
+      </c>
+      <c r="D24">
         <v>695.000000</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>187.000000</v>
       </c>
-      <c r="D24">
-        <v>2807.000000</v>
-      </c>
-      <c r="E24">
-        <v>477.000000</v>
-      </c>
       <c r="F24">
+        <v>39.000000</v>
+      </c>
+      <c r="G24">
         <v>355.000000</v>
-      </c>
-      <c r="G24">
-        <v>39.000000</v>
       </c>
       <c r="H24">
         <v>19.000000</v>
@@ -20754,22 +20754,22 @@
         <v>26</v>
       </c>
       <c r="B25">
+        <v>6058.000000</v>
+      </c>
+      <c r="C25">
+        <v>932.000000</v>
+      </c>
+      <c r="D25">
         <v>1181.000000</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>343.000000</v>
       </c>
-      <c r="D25">
-        <v>6058.000000</v>
-      </c>
-      <c r="E25">
-        <v>932.000000</v>
-      </c>
       <c r="F25">
+        <v>154.000000</v>
+      </c>
+      <c r="G25">
         <v>849.000000</v>
-      </c>
-      <c r="G25">
-        <v>154.000000</v>
       </c>
       <c r="H25">
         <v>94.000000</v>
@@ -20780,22 +20780,22 @@
         <v>27</v>
       </c>
       <c r="B26">
+        <v>6202.000000</v>
+      </c>
+      <c r="C26">
+        <v>806.000000</v>
+      </c>
+      <c r="D26">
         <v>884.000000</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>282.000000</v>
       </c>
-      <c r="D26">
-        <v>6202.000000</v>
-      </c>
-      <c r="E26">
-        <v>806.000000</v>
-      </c>
       <c r="F26">
+        <v>84.000000</v>
+      </c>
+      <c r="G26">
         <v>571.000000</v>
-      </c>
-      <c r="G26">
-        <v>84.000000</v>
       </c>
       <c r="H26">
         <v>56.000000</v>
@@ -20806,22 +20806,22 @@
         <v>28</v>
       </c>
       <c r="B27">
+        <v>12177.000000</v>
+      </c>
+      <c r="C27">
+        <v>1309.000000</v>
+      </c>
+      <c r="D27">
         <v>1884.000000</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>834.000000</v>
       </c>
-      <c r="D27">
-        <v>12177.000000</v>
-      </c>
-      <c r="E27">
-        <v>1309.000000</v>
-      </c>
       <c r="F27">
+        <v>229.000000</v>
+      </c>
+      <c r="G27">
         <v>1195.000000</v>
-      </c>
-      <c r="G27">
-        <v>229.000000</v>
       </c>
       <c r="H27">
         <v>110.000000</v>
@@ -20832,22 +20832,22 @@
         <v>29</v>
       </c>
       <c r="B28">
+        <v>17060.000000</v>
+      </c>
+      <c r="C28">
+        <v>2171.000000</v>
+      </c>
+      <c r="D28">
         <v>2964.000000</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>1084.000000</v>
       </c>
-      <c r="D28">
-        <v>17060.000000</v>
-      </c>
-      <c r="E28">
-        <v>2171.000000</v>
-      </c>
       <c r="F28">
+        <v>295.000000</v>
+      </c>
+      <c r="G28">
         <v>1630.000000</v>
-      </c>
-      <c r="G28">
-        <v>295.000000</v>
       </c>
       <c r="H28">
         <v>117.000000</v>
@@ -20858,22 +20858,22 @@
         <v>30</v>
       </c>
       <c r="B29">
+        <v>19475.000000</v>
+      </c>
+      <c r="C29">
+        <v>2199.000000</v>
+      </c>
+      <c r="D29">
         <v>2529.000000</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>669.000000</v>
       </c>
-      <c r="D29">
-        <v>19475.000000</v>
-      </c>
-      <c r="E29">
-        <v>2199.000000</v>
-      </c>
       <c r="F29">
+        <v>222.000000</v>
+      </c>
+      <c r="G29">
         <v>1101.000000</v>
-      </c>
-      <c r="G29">
-        <v>222.000000</v>
       </c>
       <c r="H29">
         <v>62.000000</v>
@@ -20884,22 +20884,22 @@
         <v>31</v>
       </c>
       <c r="B30">
+        <v>15533.000000</v>
+      </c>
+      <c r="C30">
+        <v>2316.000000</v>
+      </c>
+      <c r="D30">
         <v>2356.000000</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>608.000000</v>
       </c>
-      <c r="D30">
-        <v>15533.000000</v>
-      </c>
-      <c r="E30">
-        <v>2316.000000</v>
-      </c>
       <c r="F30">
+        <v>172.000000</v>
+      </c>
+      <c r="G30">
         <v>914.000000</v>
-      </c>
-      <c r="G30">
-        <v>172.000000</v>
       </c>
       <c r="H30">
         <v>73.000000</v>
@@ -20910,22 +20910,22 @@
         <v>32</v>
       </c>
       <c r="B31">
+        <v>19801.000000</v>
+      </c>
+      <c r="C31">
+        <v>4029.000000</v>
+      </c>
+      <c r="D31">
         <v>3809.000000</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>918.000000</v>
       </c>
-      <c r="D31">
-        <v>19801.000000</v>
-      </c>
-      <c r="E31">
-        <v>4029.000000</v>
-      </c>
       <c r="F31">
+        <v>191.000000</v>
+      </c>
+      <c r="G31">
         <v>1438.000000</v>
-      </c>
-      <c r="G31">
-        <v>191.000000</v>
       </c>
       <c r="H31">
         <v>168.000000</v>
@@ -20936,22 +20936,22 @@
         <v>33</v>
       </c>
       <c r="B32">
+        <v>39529.000000</v>
+      </c>
+      <c r="C32">
+        <v>6263.000000</v>
+      </c>
+      <c r="D32">
         <v>6665.000000</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>1393.000000</v>
       </c>
-      <c r="D32">
-        <v>39529.000000</v>
-      </c>
-      <c r="E32">
-        <v>6263.000000</v>
-      </c>
       <c r="F32">
+        <v>305.000000</v>
+      </c>
+      <c r="G32">
         <v>2328.000000</v>
-      </c>
-      <c r="G32">
-        <v>305.000000</v>
       </c>
       <c r="H32">
         <v>243.000000</v>
@@ -20962,25 +20962,25 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>5090.000000</v>
+        <v>18160.000000</v>
       </c>
       <c r="C33">
-        <v>1099.000000</v>
+        <v>3884.000000</v>
       </c>
       <c r="D33">
-        <v>26798.000000</v>
+        <v>3138.000000</v>
       </c>
       <c r="E33">
-        <v>5508.000000</v>
+        <v>669.000000</v>
       </c>
       <c r="F33">
-        <v>1819.000000</v>
+        <v>147.000000</v>
       </c>
       <c r="G33">
-        <v>235.000000</v>
+        <v>1165.000000</v>
       </c>
       <c r="H33">
-        <v>184.000000</v>
+        <v>108.000000</v>
       </c>
     </row>
   </sheetData>
@@ -21000,16 +21000,16 @@
     <row r="1" spans="1:8">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>62</v>
@@ -21026,16 +21026,16 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>38.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C2">
         <v>189.000000</v>
       </c>
       <c r="D2">
+        <v>38.000000</v>
+      </c>
+      <c r="E2">
         <v>14.000000</v>
-      </c>
-      <c r="E2">
-        <v>6.000000</v>
       </c>
       <c r="F2">
         <v>20.000000</v>
@@ -21049,16 +21049,16 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>32.000000</v>
+        <v>7.000000</v>
       </c>
       <c r="C3">
         <v>192.000000</v>
       </c>
       <c r="D3">
+        <v>32.000000</v>
+      </c>
+      <c r="E3">
         <v>24.000000</v>
-      </c>
-      <c r="E3">
-        <v>7.000000</v>
       </c>
       <c r="F3">
         <v>23.000000</v>
@@ -21072,16 +21072,16 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>32.000000</v>
+        <v>5.000000</v>
       </c>
       <c r="C4">
         <v>159.000000</v>
       </c>
       <c r="D4">
+        <v>32.000000</v>
+      </c>
+      <c r="E4">
         <v>8.000000</v>
-      </c>
-      <c r="E4">
-        <v>5.000000</v>
       </c>
       <c r="F4">
         <v>27.000000</v>
@@ -21098,16 +21098,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>37.000000</v>
+        <v>18.000000</v>
       </c>
       <c r="C5">
         <v>230.000000</v>
       </c>
       <c r="D5">
+        <v>37.000000</v>
+      </c>
+      <c r="E5">
         <v>6.000000</v>
-      </c>
-      <c r="E5">
-        <v>18.000000</v>
       </c>
       <c r="F5">
         <v>17.000000</v>
@@ -21121,16 +21121,16 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>53.000000</v>
+        <v>24.000000</v>
       </c>
       <c r="C6">
         <v>467.000000</v>
       </c>
       <c r="D6">
+        <v>53.000000</v>
+      </c>
+      <c r="E6">
         <v>18.000000</v>
-      </c>
-      <c r="E6">
-        <v>24.000000</v>
       </c>
       <c r="F6">
         <v>30.000000</v>
@@ -21147,16 +21147,16 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>35.000000</v>
+        <v>19.000000</v>
       </c>
       <c r="C7">
         <v>297.000000</v>
       </c>
       <c r="D7">
+        <v>35.000000</v>
+      </c>
+      <c r="E7">
         <v>5.000000</v>
-      </c>
-      <c r="E7">
-        <v>19.000000</v>
       </c>
       <c r="F7">
         <v>19.000000</v>
@@ -21173,16 +21173,16 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>59.000000</v>
+        <v>25.000000</v>
       </c>
       <c r="C8">
         <v>340.000000</v>
       </c>
       <c r="D8">
+        <v>59.000000</v>
+      </c>
+      <c r="E8">
         <v>15.000000</v>
-      </c>
-      <c r="E8">
-        <v>25.000000</v>
       </c>
       <c r="F8">
         <v>15.000000</v>
@@ -21199,16 +21199,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>36.000000</v>
+        <v>8.000000</v>
       </c>
       <c r="C9">
         <v>285.000000</v>
       </c>
       <c r="D9">
+        <v>36.000000</v>
+      </c>
+      <c r="E9">
         <v>15.000000</v>
-      </c>
-      <c r="E9">
-        <v>8.000000</v>
       </c>
       <c r="F9">
         <v>10.000000</v>
@@ -21219,16 +21219,16 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>44.000000</v>
+        <v>17.000000</v>
       </c>
       <c r="C10">
         <v>219.000000</v>
       </c>
       <c r="D10">
+        <v>44.000000</v>
+      </c>
+      <c r="E10">
         <v>8.000000</v>
-      </c>
-      <c r="E10">
-        <v>17.000000</v>
       </c>
       <c r="F10">
         <v>12.000000</v>
@@ -21242,16 +21242,16 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>57.000000</v>
+        <v>16.000000</v>
       </c>
       <c r="C11">
         <v>165.000000</v>
       </c>
       <c r="D11">
+        <v>57.000000</v>
+      </c>
+      <c r="E11">
         <v>5.000000</v>
-      </c>
-      <c r="E11">
-        <v>16.000000</v>
       </c>
       <c r="F11">
         <v>11.000000</v>
@@ -21268,16 +21268,16 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>39.000000</v>
+        <v>8.000000</v>
       </c>
       <c r="C12">
         <v>240.000000</v>
       </c>
       <c r="D12">
+        <v>39.000000</v>
+      </c>
+      <c r="E12">
         <v>7.000000</v>
-      </c>
-      <c r="E12">
-        <v>8.000000</v>
       </c>
       <c r="F12">
         <v>10.000000</v>
@@ -21291,16 +21291,16 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>23.000000</v>
+        <v>12.000000</v>
       </c>
       <c r="C13">
         <v>134.000000</v>
       </c>
       <c r="D13">
+        <v>23.000000</v>
+      </c>
+      <c r="E13">
         <v>5.000000</v>
-      </c>
-      <c r="E13">
-        <v>12.000000</v>
       </c>
       <c r="F13">
         <v>12.000000</v>
@@ -21314,16 +21314,16 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>14.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C14">
         <v>94.000000</v>
       </c>
       <c r="D14">
+        <v>14.000000</v>
+      </c>
+      <c r="E14">
         <v>3.000000</v>
-      </c>
-      <c r="E14">
-        <v>6.000000</v>
       </c>
       <c r="F14">
         <v>11.000000</v>
@@ -21337,16 +21337,16 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>23.000000</v>
+        <v>1.000000</v>
       </c>
       <c r="C15">
         <v>110.000000</v>
       </c>
       <c r="D15">
+        <v>23.000000</v>
+      </c>
+      <c r="E15">
         <v>5.000000</v>
-      </c>
-      <c r="E15">
-        <v>1.000000</v>
       </c>
       <c r="F15">
         <v>14.000000</v>
@@ -21360,16 +21360,16 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>35.000000</v>
+        <v>7.000000</v>
       </c>
       <c r="C16">
         <v>120.000000</v>
       </c>
       <c r="D16">
+        <v>35.000000</v>
+      </c>
+      <c r="E16">
         <v>4.000000</v>
-      </c>
-      <c r="E16">
-        <v>7.000000</v>
       </c>
       <c r="F16">
         <v>11.000000</v>
@@ -21383,16 +21383,16 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>44.000000</v>
+        <v>14.000000</v>
       </c>
       <c r="C17">
         <v>162.000000</v>
       </c>
       <c r="D17">
+        <v>44.000000</v>
+      </c>
+      <c r="E17">
         <v>5.000000</v>
-      </c>
-      <c r="E17">
-        <v>14.000000</v>
       </c>
       <c r="F17">
         <v>13.000000</v>
@@ -21409,16 +21409,16 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>31.000000</v>
+        <v>8.000000</v>
       </c>
       <c r="C18">
         <v>126.000000</v>
       </c>
       <c r="D18">
+        <v>31.000000</v>
+      </c>
+      <c r="E18">
         <v>4.000000</v>
-      </c>
-      <c r="E18">
-        <v>8.000000</v>
       </c>
       <c r="F18">
         <v>21.000000</v>
@@ -21435,16 +21435,16 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>35.000000</v>
+        <v>2.000000</v>
       </c>
       <c r="C19">
         <v>134.000000</v>
       </c>
       <c r="D19">
+        <v>35.000000</v>
+      </c>
+      <c r="E19">
         <v>4.000000</v>
-      </c>
-      <c r="E19">
-        <v>2.000000</v>
       </c>
       <c r="F19">
         <v>11.000000</v>
@@ -21455,16 +21455,16 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>38.000000</v>
+        <v>2.000000</v>
       </c>
       <c r="C20">
         <v>223.000000</v>
       </c>
       <c r="D20">
+        <v>38.000000</v>
+      </c>
+      <c r="E20">
         <v>5.000000</v>
-      </c>
-      <c r="E20">
-        <v>2.000000</v>
       </c>
       <c r="F20">
         <v>14.000000</v>
@@ -21478,16 +21478,16 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>48.000000</v>
+        <v>5.000000</v>
       </c>
       <c r="C21">
         <v>222.000000</v>
       </c>
       <c r="D21">
+        <v>48.000000</v>
+      </c>
+      <c r="E21">
         <v>10.000000</v>
-      </c>
-      <c r="E21">
-        <v>5.000000</v>
       </c>
       <c r="F21">
         <v>23.000000</v>
@@ -21501,16 +21501,16 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>222.000000</v>
+        <v>39.000000</v>
       </c>
       <c r="C22">
         <v>397.000000</v>
       </c>
       <c r="D22">
+        <v>222.000000</v>
+      </c>
+      <c r="E22">
         <v>58.000000</v>
-      </c>
-      <c r="E22">
-        <v>39.000000</v>
       </c>
       <c r="F22">
         <v>149.000000</v>
@@ -21527,16 +21527,16 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>333.000000</v>
+        <v>27.000000</v>
       </c>
       <c r="C23">
         <v>462.000000</v>
       </c>
       <c r="D23">
+        <v>333.000000</v>
+      </c>
+      <c r="E23">
         <v>55.000000</v>
-      </c>
-      <c r="E23">
-        <v>27.000000</v>
       </c>
       <c r="F23">
         <v>133.000000</v>
@@ -21553,16 +21553,16 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>287.000000</v>
+        <v>29.000000</v>
       </c>
       <c r="C24">
         <v>636.000000</v>
       </c>
       <c r="D24">
+        <v>287.000000</v>
+      </c>
+      <c r="E24">
         <v>59.000000</v>
-      </c>
-      <c r="E24">
-        <v>29.000000</v>
       </c>
       <c r="F24">
         <v>183.000000</v>
@@ -21579,16 +21579,16 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>522.000000</v>
+        <v>71.000000</v>
       </c>
       <c r="C25">
         <v>1086.000000</v>
       </c>
       <c r="D25">
+        <v>522.000000</v>
+      </c>
+      <c r="E25">
         <v>101.000000</v>
-      </c>
-      <c r="E25">
-        <v>71.000000</v>
       </c>
       <c r="F25">
         <v>305.000000</v>
@@ -21605,16 +21605,16 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>442.000000</v>
+        <v>31.000000</v>
       </c>
       <c r="C26">
         <v>914.000000</v>
       </c>
       <c r="D26">
+        <v>442.000000</v>
+      </c>
+      <c r="E26">
         <v>92.000000</v>
-      </c>
-      <c r="E26">
-        <v>31.000000</v>
       </c>
       <c r="F26">
         <v>143.000000</v>
@@ -21631,16 +21631,16 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>939.000000</v>
+        <v>85.000000</v>
       </c>
       <c r="C27">
         <v>3155.000000</v>
       </c>
       <c r="D27">
+        <v>939.000000</v>
+      </c>
+      <c r="E27">
         <v>421.000000</v>
-      </c>
-      <c r="E27">
-        <v>85.000000</v>
       </c>
       <c r="F27">
         <v>433.000000</v>
@@ -21657,16 +21657,16 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1415.000000</v>
+        <v>156.000000</v>
       </c>
       <c r="C28">
         <v>4336.000000</v>
       </c>
       <c r="D28">
+        <v>1415.000000</v>
+      </c>
+      <c r="E28">
         <v>687.000000</v>
-      </c>
-      <c r="E28">
-        <v>156.000000</v>
       </c>
       <c r="F28">
         <v>832.000000</v>
@@ -21683,16 +21683,16 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1693.000000</v>
+        <v>223.000000</v>
       </c>
       <c r="C29">
         <v>5555.000000</v>
       </c>
       <c r="D29">
+        <v>1693.000000</v>
+      </c>
+      <c r="E29">
         <v>459.000000</v>
-      </c>
-      <c r="E29">
-        <v>223.000000</v>
       </c>
       <c r="F29">
         <v>850.000000</v>
@@ -21709,16 +21709,16 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>2293.000000</v>
+        <v>357.000000</v>
       </c>
       <c r="C30">
         <v>6350.000000</v>
       </c>
       <c r="D30">
+        <v>2293.000000</v>
+      </c>
+      <c r="E30">
         <v>634.000000</v>
-      </c>
-      <c r="E30">
-        <v>357.000000</v>
       </c>
       <c r="F30">
         <v>1087.000000</v>
@@ -21735,16 +21735,16 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>5762.000000</v>
+        <v>1428.000000</v>
       </c>
       <c r="C31">
         <v>17691.000000</v>
       </c>
       <c r="D31">
+        <v>5762.000000</v>
+      </c>
+      <c r="E31">
         <v>1660.000000</v>
-      </c>
-      <c r="E31">
-        <v>1428.000000</v>
       </c>
       <c r="F31">
         <v>3694.000000</v>
@@ -21761,16 +21761,16 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>18988.000000</v>
+        <v>4474.000000</v>
       </c>
       <c r="C32">
         <v>58826.000000</v>
       </c>
       <c r="D32">
+        <v>18988.000000</v>
+      </c>
+      <c r="E32">
         <v>4500.000000</v>
-      </c>
-      <c r="E32">
-        <v>4474.000000</v>
       </c>
       <c r="F32">
         <v>8818.000000</v>
@@ -21787,25 +21787,25 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>26937.000000</v>
+        <v>4590.000000</v>
       </c>
       <c r="C33">
-        <v>82797.000000</v>
+        <v>64642.000000</v>
       </c>
       <c r="D33">
-        <v>6271.000000</v>
+        <v>20444.000000</v>
       </c>
       <c r="E33">
-        <v>5938.000000</v>
+        <v>5142.000000</v>
       </c>
       <c r="F33">
-        <v>12172.000000</v>
+        <v>9346.000000</v>
       </c>
       <c r="G33">
-        <v>879.000000</v>
+        <v>776.000000</v>
       </c>
       <c r="H33">
-        <v>1172.000000</v>
+        <v>1060.000000</v>
       </c>
     </row>
   </sheetData>
